--- a/BalanceSheet/AEE_bal.xlsx
+++ b/BalanceSheet/AEE_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>36000000.0</v>
+        <v>521000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-42000000.0</v>
+        <v>557000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-42000000.0</v>
+        <v>514000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>23000000.0</v>
+        <v>471000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-6000000.0</v>
+        <v>494000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>488000000.0</v>
@@ -1808,19 +1808,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>230000000.0</v>
+        <v>958000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3000000.0</v>
+        <v>640000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>28000000.0</v>
+        <v>616000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-221000000.0</v>
+        <v>544000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>202000000.0</v>
+        <v>874000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>598000000.0</v>
@@ -2806,19 +2806,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>23000000.0</v>
+        <v>3211000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>57000000.0</v>
+        <v>3151000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>45000000.0</v>
+        <v>3034000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>23000000.0</v>
+        <v>2948000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>23000000.0</v>
+        <v>2919000000.0</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
